--- a/ExcelConfig/magicLevelup.xlsx
+++ b/ExcelConfig/magicLevelup.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <r>
       <rPr>
@@ -127,6 +127,17 @@
     <t>参数5</t>
     <rPh sb="0" eb="1">
       <t>can shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <rPh sb="0" eb="1">
+      <t>deng ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,27 +553,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="2" customWidth="1"/>
-    <col min="5" max="7" width="8.83203125" style="2"/>
-    <col min="8" max="8" width="11.33203125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="4" width="10.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
+    <col min="6" max="8" width="8.83203125" style="2"/>
+    <col min="9" max="9" width="11.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -573,22 +584,25 @@
         <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -599,7 +613,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -613,8 +627,11 @@
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -624,23 +641,26 @@
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -648,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -659,7 +679,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/magicLevelup.xlsx
+++ b/ExcelConfig/magicLevelup.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <r>
       <rPr>
@@ -137,6 +137,37 @@
   <si>
     <t>等级</t>
     <rPh sb="0" eb="1">
+      <t>deng ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗金币</t>
+    <rPh sb="0" eb="1">
+      <t>xiao hao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedCharacterLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求角色等级</t>
+    <rPh sb="0" eb="1">
+      <t>xu qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jue se</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>deng ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,27 +584,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
-    <col min="6" max="8" width="8.83203125" style="2"/>
-    <col min="9" max="9" width="11.33203125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="6" width="10.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="2" customWidth="1"/>
+    <col min="8" max="10" width="8.83203125" style="2"/>
+    <col min="11" max="11" width="11.33203125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -587,22 +618,28 @@
         <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -616,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -630,8 +667,14 @@
       <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -644,23 +687,29 @@
       <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -668,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -679,7 +728,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C2 D2:E2 F2:T2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
